--- a/troyan_realno (1) (1).xlsx
+++ b/troyan_realno (1) (1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="задача 1(квадрат)" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="задача 2(7 степень)" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,35 +523,23 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12159388243432948"/>
-          <c:y val="8.351489887293502E-2"/>
-          <c:w val="0.62649778363726194"/>
+          <c:x val="0.1215938824343295"/>
+          <c:y val="8.3514898872935048E-2"/>
+          <c:w val="0.62649778363726183"/>
           <c:h val="0.80506746950748809"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -641,8 +629,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-865D-4976-965C-3E38C55DF59B}"/>
             </c:ext>
@@ -748,30 +735,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-865D-4976-965C-3E38C55DF59B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="51131904"/>
-        <c:axId val="51072000"/>
+        <c:dLbls/>
+        <c:axId val="127555072"/>
+        <c:axId val="127556992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51131904"/>
+        <c:axId val="127555072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -796,25 +774,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.78659846623323182"/>
-              <c:y val="0.90899984560753433"/>
+              <c:y val="0.90899984560753444"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51072000"/>
+        <c:crossAx val="127556992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51072000"/>
+        <c:axId val="127556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -838,17 +812,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.7663818698679925E-2"/>
-              <c:y val="1.5058205959549174E-2"/>
+              <c:x val="5.7663818698679918E-2"/>
+              <c:y val="1.5058205959549173E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51131904"/>
+        <c:crossAx val="127555072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -862,42 +833,29 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.697790581501399E-2"/>
+          <c:x val="9.6977905815014004E-2"/>
           <c:y val="9.7222222222222224E-2"/>
           <c:w val="0.837134082130645"/>
           <c:h val="0.69720691163604553"/>
@@ -905,7 +863,6 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1012,8 +969,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0132-4346-B5D3-4237661816AE}"/>
             </c:ext>
@@ -1121,30 +1077,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0132-4346-B5D3-4237661816AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2017860463"/>
-        <c:axId val="2017862127"/>
+        <c:dLbls/>
+        <c:axId val="127729024"/>
+        <c:axId val="134370816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2017860463"/>
+        <c:axId val="127729024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1191,11 +1138,10 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.94347155537169158"/>
-              <c:y val="0.75368037328667248"/>
+              <c:x val="0.94347155537169169"/>
+              <c:y val="0.7536803732866727"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1203,30 +1149,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1261,16 +1186,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017862127"/>
+        <c:crossAx val="134370816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2017862127"/>
+        <c:axId val="134370816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1318,10 +1242,9 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="8.0149007952008952E-2"/>
-              <c:y val="1.2480679498396031E-2"/>
+              <c:y val="1.2480679498396034E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1329,30 +1252,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1387,7 +1289,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017860463"/>
+        <c:crossAx val="127729024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1405,10 +1307,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13948974046998264"/>
-          <c:y val="0.13946704578594343"/>
-          <c:w val="0.30166298276777098"/>
-          <c:h val="0.15625109361329836"/>
+          <c:x val="0.13948974046998266"/>
+          <c:y val="0.13946704578594346"/>
+          <c:w val="0.30166298276777104"/>
+          <c:h val="0.15625109361329839"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1442,7 +1344,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1466,25 +1367,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1514,10 +1405,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31779155730533676"/>
-          <c:y val="2.777777777777779E-2"/>
+          <c:y val="2.7777777777777801E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1526,22 +1416,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1221984748774116"/>
+          <c:x val="0.12219847487741162"/>
           <c:y val="4.1904592197040694E-2"/>
-          <c:w val="0.87753018372703406"/>
-          <c:h val="0.61498432487605703"/>
+          <c:w val="0.87753018372703395"/>
+          <c:h val="0.61498432487605692"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1608,8 +1496,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4A0-43DA-AF33-1AC60651533F}"/>
             </c:ext>
@@ -1681,35 +1568,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D4A0-43DA-AF33-1AC60651533F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="133817856"/>
-        <c:axId val="133819392"/>
+        <c:axId val="146035456"/>
+        <c:axId val="146036992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133817856"/>
+        <c:axId val="146035456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1744,19 +1620,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133819392"/>
+        <c:crossAx val="146036992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133819392"/>
+        <c:axId val="146036992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1774,7 +1648,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1803,7 +1676,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133817856"/>
+        <c:crossAx val="146035456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,8 +1690,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1849,7 +1720,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1878,7 +1748,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2778,8 +2648,8 @@
       <xdr:rowOff>139688</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2342418" cy="462114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3193,7 +3063,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3391,8 +3261,8 @@
       <xdr:rowOff>80028</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1251881" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -3533,7 +3403,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -3595,8 +3465,8 @@
       <xdr:rowOff>182216</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3990163" cy="2182611"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -5518,7 +5388,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -6899,7 +6769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6934,7 +6804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7111,28 +6981,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="L1" t="s">
         <v>4</v>
       </c>
@@ -7140,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7179,7 +7049,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7221,7 +7091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7273,7 +7143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7322,7 +7192,7 @@
         <v>24156000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7371,7 +7241,7 @@
         <v>4051380000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7420,7 +7290,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7469,7 +7339,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>10</v>
       </c>
@@ -7504,7 +7374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <f>$G$19 + $G$20 * A15 + $G$21 * POWER(A15,2)</f>
         <v>9.9614025931697672</v>
@@ -7550,7 +7420,7 @@
         <v>4842.316302283687</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17">
         <f>(B3-A16)^2</f>
         <v>1.4897598140185036E-3</v>
@@ -7596,7 +7466,7 @@
         <v>3.1224451631915295</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="F19" t="s">
         <v>10</v>
       </c>
@@ -7620,7 +7490,7 @@
         <v>15299.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -7644,7 +7514,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -7676,20 +7546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="M1" t="s">
         <v>4</v>
       </c>
@@ -7697,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7742,7 +7612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7784,7 +7654,7 @@
         <v>15299.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7836,7 +7706,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7888,7 +7758,7 @@
         <v>24156000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7940,7 +7810,7 @@
         <v>4051380000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -7992,7 +7862,7 @@
         <v>706558800000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -8008,7 +7878,7 @@
         <v>729000000</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="D8:L8" si="5">POWER(E2,6)</f>
+        <f t="shared" ref="E8:L8" si="5">POWER(E2,6)</f>
         <v>46656000000</v>
       </c>
       <c r="F8">
@@ -8044,7 +7914,7 @@
         <v>126614490000000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8096,7 +7966,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8148,7 +8018,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8200,7 +8070,7 @@
         <v>70670025400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8241,7 +8111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -8293,7 +8163,7 @@
         <v>4840.3742913967699</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -8341,12 +8211,12 @@
         <v>1.052868435325059E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="C19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="C20" s="21">
         <f>MAX(C18:L18)</f>
         <v>2.8573360151850471</v>
@@ -8379,7 +8249,7 @@
         <v>15299.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="F21" t="s">
         <v>11</v>
       </c>
@@ -8407,7 +8277,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="F22" t="s">
         <v>12</v>
       </c>
@@ -8435,7 +8305,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="F23" t="s">
         <v>16</v>
       </c>
@@ -8471,14 +8341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -8488,12 +8358,12 @@
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8532,7 +8402,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8571,7 +8441,7 @@
         <v>15299.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8620,7 +8490,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8669,7 +8539,7 @@
         <v>24156000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8718,7 +8588,7 @@
         <v>4051380000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -8767,7 +8637,7 @@
         <v>706558800000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -8816,7 +8686,7 @@
         <v>126614490000000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8865,7 +8735,7 @@
         <v>2.314280076E+16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8914,7 +8784,7 @@
         <v>4.2939162018E+18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8963,7 +8833,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9012,7 +8882,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -9061,7 +8931,7 @@
         <v>70670025400</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -9110,7 +8980,7 @@
         <v>12664224442000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="F19" t="s">
         <v>10</v>
       </c>
@@ -9141,7 +9011,7 @@
         <v>15299.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -9168,7 +9038,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -9195,7 +9065,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="F22" t="s">
         <v>16</v>
       </c>
@@ -9222,7 +9092,7 @@
         <v>70670025400</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="F23" t="s">
         <v>20</v>
       </c>
@@ -9249,7 +9119,7 @@
         <v>12664224442000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -9287,7 +9157,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -9336,7 +9206,7 @@
         <v>4837.9032287241798</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -9381,12 +9251,12 @@
         <v>0.19230698319538539</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="B29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="B30" s="21">
         <f>MAX(B28:K28)</f>
         <v>1.9464231154237948</v>
@@ -9398,20 +9268,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="L1" t="s">
         <v>4</v>
       </c>
@@ -9442,7 +9312,7 @@
         <v>15299.1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9505,7 +9375,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9568,7 +9438,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9641,7 +9511,7 @@
         <v>70670025400</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9714,7 +9584,7 @@
         <v>12664224442000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9787,7 +9657,7 @@
         <v>2314805480860000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -9860,7 +9730,7 @@
         <v>4.294900613818E+17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -9909,7 +9779,7 @@
         <v>126614490000000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -9958,7 +9828,7 @@
         <v>2.314280076E+16</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -10014,7 +9884,7 @@
         <v>0.959525465965271</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -10069,7 +9939,7 @@
         <v>-0.16302017820999026</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -10124,7 +9994,7 @@
         <v>0.10913113426067866</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -10179,7 +10049,7 @@
         <v>-2.1689178265660303E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -10234,7 +10104,7 @@
         <v>2.2745185219719133E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -10289,7 +10159,7 @@
         <v>-1.0642100228830387E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10344,7 +10214,7 @@
         <v>1.8260717563707216E-11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10393,7 +10263,7 @@
         <v>70670025400</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -10442,7 +10312,7 @@
         <v>12664224442000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -10491,7 +10361,7 @@
         <v>2314805480860000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -10540,7 +10410,7 @@
         <v>4.294900613818E+17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="B22">
         <f>$O$10 + $O$11 *B2 + $O$12 * POWER(B2,2) + $O$13 * POWER(B2,3) + $O$14 * POWER(B2,4) + $O$15 * POWER(B2,5) + $O$16 * POWER(B2,6)</f>
         <v>10.047244563191033</v>
@@ -10582,7 +10452,7 @@
         <v>4000.910085004889</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -10627,12 +10497,12 @@
         <v>8.0847063458166016E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="B25" s="21">
         <f>MAX(B23:K23)</f>
         <v>2.3450785557416727</v>
@@ -10644,16 +10514,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="L1" t="s">
         <v>4</v>
       </c>
@@ -10661,7 +10531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10703,7 +10573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10742,7 +10612,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10791,7 +10661,7 @@
         <v>64.09</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10840,7 +10710,7 @@
         <v>197.58500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10889,7 +10759,7 @@
         <v>654.72970000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10938,7 +10808,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10987,7 +10857,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11019,7 +10889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <f>$G$19 + $G$20 * A15 + $G$21 * POWER(A15,2)</f>
         <v>1007.3731869170224</v>
@@ -11061,7 +10931,7 @@
         <v>774.39226768357912</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:15">
       <c r="K18" s="24" t="s">
         <v>30</v>
       </c>
@@ -11071,7 +10941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:15">
       <c r="G19">
         <f t="array" ref="G19:G21">MMULT(MINVERSE(K19:M21),O19:O21)</f>
         <v>1320.6015171484323</v>
@@ -11095,7 +10965,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:15">
       <c r="G20">
         <v>-372.12033618647547</v>
       </c>
@@ -11119,7 +10989,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:15">
       <c r="G21">
         <v>58.892005955065542</v>
       </c>
@@ -11143,13 +11013,13 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:15">
       <c r="G23">
         <f t="array" ref="G23:G25">MMULT(K19:M21,G19:G21)</f>
         <v>8309.9999999995944</v>
       </c>
     </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:15">
       <c r="F24" t="s">
         <v>31</v>
       </c>
@@ -11157,7 +11027,7 @@
         <v>18556.999999998887</v>
       </c>
     </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:15">
       <c r="G25">
         <v>49670.299999996554</v>
       </c>
@@ -11172,16 +11042,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="L1" t="s">
         <v>4</v>
       </c>
@@ -11189,7 +11059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11231,7 +11101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11270,7 +11140,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11319,7 +11189,7 @@
         <v>64.09</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11368,7 +11238,7 @@
         <v>197.58500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11417,7 +11287,7 @@
         <v>654.72970000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11466,7 +11336,7 @@
         <v>2271.0011300000006</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11515,7 +11385,7 @@
         <v>8119.1705290000009</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11564,7 +11434,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11613,7 +11483,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -11662,7 +11532,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -11700,7 +11570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -11749,8 +11619,8 @@
         <v>352.18774415743246</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:13">
       <c r="F20" t="s">
         <v>10</v>
       </c>
@@ -11779,7 +11649,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="F21" t="s">
         <v>11</v>
       </c>
@@ -11807,7 +11677,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="F22" t="s">
         <v>12</v>
       </c>
@@ -11835,7 +11705,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="F23" t="s">
         <v>16</v>
       </c>
@@ -11872,21 +11742,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11925,7 +11795,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11964,7 +11834,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12013,7 +11883,7 @@
         <v>64.09</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -12062,7 +11932,7 @@
         <v>197.58500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -12111,7 +11981,7 @@
         <v>654.72970000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12160,7 +12030,7 @@
         <v>2271.0011300000006</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12209,7 +12079,7 @@
         <v>8119.1705290000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12258,7 +12128,7 @@
         <v>29648.488638500003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12307,7 +12177,7 @@
         <v>109966.80375937001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -12356,7 +12226,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12405,7 +12275,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -12454,7 +12324,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -12503,7 +12373,7 @@
         <v>495761.21900000004</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="F19" t="s">
         <v>10</v>
       </c>
@@ -12535,7 +12405,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -12563,7 +12433,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -12591,7 +12461,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="F22" t="s">
         <v>16</v>
       </c>
@@ -12619,7 +12489,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="F23" t="s">
         <v>20</v>
       </c>
@@ -12647,7 +12517,7 @@
         <v>495761.21900000004</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26">
         <v>1</v>
       </c>
@@ -12682,7 +12552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27">
         <f t="shared" ref="B27:L27" si="12">$G$19 + $G$20 *B26 + $G$21 * POWER(B26,2) + $G$22 * POWER(B26,3) + $G$23 * POWER(B26,4)</f>
         <v>1079.9751335573674</v>
@@ -12734,16 +12604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CP23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="L1" t="s">
         <v>4</v>
       </c>
@@ -12774,7 +12644,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12838,7 +12708,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12903,7 +12773,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12978,7 +12848,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13053,7 +12923,7 @@
         <v>495761.21900000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -13127,7 +12997,7 @@
         <v>1711762.0067</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -13201,7 +13071,7 @@
         <v>6102703.3016300006</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13250,7 +13120,7 @@
         <v>8119.1705290000009</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -13299,7 +13169,7 @@
         <v>29648.488638500003</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -13355,7 +13225,7 @@
         <v>8933.0840547084808</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -13410,7 +13280,7 @@
         <v>-20430.649064540863</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -13465,7 +13335,7 @@
         <v>21065.160466194153</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -13520,7 +13390,7 @@
         <v>-11330.56552028656</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -13575,7 +13445,7 @@
         <v>3343.0939637422562</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -13630,7 +13500,7 @@
         <v>-513.11426430940628</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -13685,7 +13555,7 @@
         <v>32.04232513345778</v>
       </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -13734,7 +13604,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -13783,7 +13653,7 @@
         <v>495761.21900000004</v>
       </c>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -14075,7 +13945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -14448,7 +14318,7 @@
         <v>3701.141933331266</v>
       </c>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94">
       <c r="N21">
         <v>1100</v>
       </c>
@@ -14480,7 +14350,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94">
       <c r="B22">
         <f>$O$10 + $O$11 *B2 + $O$12 * POWER(B2,2) + $O$13 * POWER(B2,3) + $O$14 * POWER(B2,4) + $O$15 * POWER(B2,5) + $O$16 * POWER(B2,6)</f>
         <v>1099.0519606415182</v>
@@ -14522,7 +14392,7 @@
         <v>745.27376914024353</v>
       </c>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -14578,14 +14448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -14595,7 +14465,7 @@
     <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14634,7 +14504,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14673,7 +14543,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14722,7 +14592,7 @@
         <v>64.09</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -14771,7 +14641,7 @@
         <v>197.58500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -14820,7 +14690,7 @@
         <v>654.72970000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -14869,7 +14739,7 @@
         <v>2271.0011300000006</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -14918,7 +14788,7 @@
         <v>8119.1705290000009</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -14967,7 +14837,7 @@
         <v>29648.488638500003</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -15055,7 +14925,7 @@
         <v>197.58500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -15136,7 +15006,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -15217,7 +15087,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -15298,7 +15168,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -15379,7 +15249,7 @@
         <v>495761.21900000004</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -15460,7 +15330,7 @@
         <v>1711762.0067</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15541,7 +15411,7 @@
         <v>6102703.3016300006</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -15619,7 +15489,7 @@
         <v>22243540.709411003</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -15668,7 +15538,7 @@
         <v>49670.3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -15717,7 +15587,7 @@
         <v>150830.51</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -15776,7 +15646,7 @@
         <v>14288.347621917725</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -15834,7 +15704,7 @@
         <v>-39561.537750244141</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -15892,7 +15762,7 @@
         <v>49127.756103515625</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -15950,7 +15820,7 @@
         <v>-33271.372985839844</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="O23" t="s">
         <v>40</v>
       </c>
@@ -15961,7 +15831,7 @@
         <v>13239.231201171875</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -16005,7 +15875,7 @@
         <v>-3094.7433261871338</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -16059,7 +15929,7 @@
         <v>393.71040821075439</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>29</v>
       </c>
